--- a/test1.xlsx
+++ b/test1.xlsx
@@ -350,26 +350,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>111</v>
       </c>
+      <c r="B1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>111</v>
+      </c>
+      <c r="B4">
         <v>111</v>
       </c>
     </row>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>asdaf</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,15 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>111</v>
       </c>
@@ -366,12 +374,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>111</v>
       </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>111</v>
       </c>
@@ -379,7 +390,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>111</v>
       </c>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>asdaf</t>
+  </si>
+  <si>
+    <t>qw</t>
   </si>
 </sst>
 </file>
@@ -358,15 +361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>111</v>
       </c>
@@ -374,15 +377,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>111</v>
       </c>
@@ -390,7 +396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>111</v>
       </c>
